--- a/Chapter05/Chapter 5 - Data Validation.xlsx
+++ b/Chapter05/Chapter 5 - Data Validation.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="65555"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Packt\Chapter 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F220C4-4A2A-4DDD-947D-E249B13849DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08510146-67D6-4260-B634-5F3CB44CF9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5B8085E6-10C7-4B23-BF58-E9BA0EFB21B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{5B8085E6-10C7-4B23-BF58-E9BA0EFB21B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="3" r:id="rId1"/>
-    <sheet name="INDIRECT function" sheetId="4" r:id="rId2"/>
-    <sheet name="SUBSTITUTE function" sheetId="5" r:id="rId3"/>
-    <sheet name="TODAY function" sheetId="10" r:id="rId4"/>
-    <sheet name="EOMONTH function" sheetId="12" r:id="rId5"/>
-    <sheet name="FIND function" sheetId="6" r:id="rId6"/>
-    <sheet name="COUNTIF function" sheetId="7" r:id="rId7"/>
-    <sheet name="INDEX function" sheetId="9" r:id="rId8"/>
-    <sheet name="Form Controls" sheetId="8" r:id="rId9"/>
+    <sheet name="Remove Data Validation" sheetId="13" r:id="rId2"/>
+    <sheet name="INDIRECT function" sheetId="4" r:id="rId3"/>
+    <sheet name="SUBSTITUTE function" sheetId="5" r:id="rId4"/>
+    <sheet name="TODAY function" sheetId="10" r:id="rId5"/>
+    <sheet name="EOMONTH function" sheetId="12" r:id="rId6"/>
+    <sheet name="FIND function" sheetId="6" r:id="rId7"/>
+    <sheet name="COUNTIF function" sheetId="7" r:id="rId8"/>
+    <sheet name="INDEX function" sheetId="9" r:id="rId9"/>
+    <sheet name="Form Controls" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Validation'!$B$3:$F$12</definedName>
-    <definedName name="Hamburgers">#REF!</definedName>
-    <definedName name="Hot_Dogs">#REF!</definedName>
-    <definedName name="Not_recommended_for_promotion">'Data Validation'!$O$2:$O$4</definedName>
-    <definedName name="Recommended_for_promotion">'Data Validation'!$N$2:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Validation'!$B$3:$F$14</definedName>
+    <definedName name="Recommended_for_promotion">'Data Validation'!$R$2:$R$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +66,7 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{A1864D64-B3BF-46CE-B0EE-85B426F27E6F}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{3043F964-9329-433B-A5BE-A57FD8402724}">
       <text/>
     </comment>
   </commentList>
@@ -81,10 +79,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{1FF689CB-2D3C-4D96-9B56-FA614B3FB29C}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{0D2FB33D-56C5-404F-B1E6-1AE3DA41B013}">
       <text/>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{72241DC1-3807-49DE-AFD5-3ABE81BFCB83}">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{D2D0C7A1-20F3-44DA-97BC-17CFD84C3664}">
       <text/>
     </comment>
   </commentList>
@@ -97,16 +95,16 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{8A713345-A743-403F-996C-D8138F68A7AF}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{8A713345-A743-403F-996C-D8138F68A7AF}">
       <text/>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{BE8A9749-13DC-4D73-8659-DC40CEAE3D2D}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{BE8A9749-13DC-4D73-8659-DC40CEAE3D2D}">
       <text/>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{04AC92D9-2722-47FC-88D5-97799F073807}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{04AC92D9-2722-47FC-88D5-97799F073807}">
       <text/>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{A152C5D6-4BF2-419D-80C6-7C2C06366CF8}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{A152C5D6-4BF2-419D-80C6-7C2C06366CF8}">
       <text/>
     </comment>
   </commentList>
@@ -119,10 +117,10 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{D5D839EC-02C2-4D52-B909-22BA3928D11D}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{15BF5246-BBFE-47AA-9545-DDBD170686E6}">
       <text/>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{F9572BBD-63C6-4BED-B7A5-A14CBE378F95}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{7A4828F9-CC26-48DF-AC5D-E760DB290ABC}">
       <text/>
     </comment>
   </commentList>
@@ -135,19 +133,19 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{29CB51D0-81A8-44D6-8816-C97E094CB35B}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{3DEA6C69-0A16-4D9C-A8AA-81DB97E5BED1}">
       <text/>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{5A05CF1B-1033-4FFE-891B-155669BBC7F5}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A5FD4C36-6488-4953-B6BD-9905664319DC}">
       <text/>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{0823B2FF-6725-44DF-BE30-6D572FE66FC0}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{E6D8D1E7-F009-4AB9-A154-8508A51A3073}">
       <text/>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{5E784A28-9866-4633-8CD6-751063F952FD}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{3C7229F5-C57A-4937-AF69-6CE2F175A528}">
       <text/>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{E419E7AD-0249-4092-B0F2-DF7F55435422}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{64D39967-72E9-41AA-89B4-16D485F26A6D}">
       <text/>
     </comment>
   </commentList>
@@ -176,7 +174,7 @@
     <author>David Ringstrom</author>
   </authors>
   <commentList>
-    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{2AA21028-F6FB-4AB0-A5CE-623F1B8D6ED9}">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{8D548CDD-204C-4C20-BC2E-0814B75EFFE6}">
       <text/>
     </comment>
   </commentList>
@@ -206,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
   <si>
     <t>January</t>
   </si>
@@ -250,13 +248,7 @@
     <t>1, 10, 50, 1000</t>
   </si>
   <si>
-    <t>.05, 1.5, 1</t>
-  </si>
-  <si>
     <t>1.5, .05, Text-based inputs</t>
-  </si>
-  <si>
-    <t>Text-based inputs</t>
   </si>
   <si>
     <t>January through December</t>
@@ -430,40 +422,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(Information)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Decimal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Stop)</t>
     </r>
   </si>
   <si>
@@ -613,26 +571,6 @@
     <t>David Ringstrom</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <r>
-      <t>Decimal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (default warning)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Blue </t>
   </si>
   <si>
@@ -812,9 +750,6 @@
     <t>ComboBox</t>
   </si>
   <si>
-    <t>Enter anything here</t>
-  </si>
-  <si>
     <t>No restrictions, enter anything</t>
   </si>
   <si>
@@ -842,9 +777,6 @@
     <t>Any color already in C19:C23</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
     <t>TODAY function</t>
   </si>
   <si>
@@ -972,6 +904,67 @@
   </si>
   <si>
     <t>Supporting Lists</t>
+  </si>
+  <si>
+    <r>
+      <t>Decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (default warning)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decimal</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (cell prompt and Stop warning)</t>
+    </r>
+  </si>
+  <si>
+    <t>Day of the Week Validation</t>
+  </si>
+  <si>
+    <t>Date Validation</t>
+  </si>
+  <si>
+    <t>Time Validation</t>
+  </si>
+  <si>
+    <t>Whole Number</t>
+  </si>
+  <si>
+    <t>Date/Time/Whole Number</t>
+  </si>
+  <si>
+    <t>List (auto-sort, based upon table)</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Original Text</t>
   </si>
 </sst>
 </file>
@@ -1050,15 +1043,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1088,8 +1072,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1099,7 +1092,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1154,8 +1147,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1327,11 +1338,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1358,34 +1380,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1396,13 +1411,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1412,15 +1427,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1448,45 +1484,38 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1505,7 +1534,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="K9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="K9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1513,14 +1542,14 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$K$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
@@ -1541,7 +1570,7 @@
                   <a14:compatExt spid="_x0000_s16396"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1606,7 +1635,7 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
@@ -1627,7 +1656,7 @@
                   <a14:compatExt spid="_x0000_s16401"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1657,14 +1686,14 @@
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
-        <xdr:clientData/>
+        <xdr:clientData fLocksWithSheet="0"/>
       </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
@@ -1685,7 +1714,7 @@
                   <a14:compatExt spid="_x0000_s16403"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013400000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013400000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1752,8 +1781,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9894F52A-B870-435D-8F19-9449709B4B9E}" name="Colors" displayName="Colors" ref="J1:J6" totalsRowShown="0">
-  <autoFilter ref="J1:J6" xr:uid="{9894F52A-B870-435D-8F19-9449709B4B9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9894F52A-B870-435D-8F19-9449709B4B9E}" name="Colors" displayName="Colors" ref="J1:J7" totalsRowShown="0">
+  <autoFilter ref="J1:J7" xr:uid="{9894F52A-B870-435D-8F19-9449709B4B9E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{C784DFE2-4834-486C-ABF5-545C6A906912}" name="Colors"/>
   </tableColumns>
@@ -2059,23 +2088,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CF74D9-A259-430A-B4E0-E5E6E7951E19}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O23"/>
+  <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="44" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="46.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.85546875" collapsed="1"/>
+    <col min="18" max="18" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2084,457 +2114,552 @@
       <c r="E1" s="1"/>
       <c r="F1" s="11"/>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="F2" s="9"/>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2:N7">_xlfn._xlws.SORT(Colors[Colors])</f>
+        <v>Blue</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" ref="P2:P7">_xlfn._xlws.SORT(Colors[Colors])</f>
+        <v>Blue</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Brown</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Brown</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Green</v>
+      </c>
+      <c r="P4" t="str">
+        <v>Green</v>
+      </c>
+      <c r="R4" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Orange</v>
+      </c>
+      <c r="P5" t="str">
+        <v>Orange</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="20"/>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Red</v>
+      </c>
+      <c r="P6" t="str">
+        <v>Red</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="J7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" t="str">
+        <v>White</v>
+      </c>
+      <c r="P7" t="str">
+        <v>White</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="82" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="26">
-        <v>10</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="43">
-        <v>10</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45" t="s">
+      <c r="F27" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="43">
-        <v>0.05</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="46">
-        <v>45657</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45" t="s">
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F29" s="82" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="43">
-        <v>1234567890</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>94</v>
-      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F12" xr:uid="{D3CF74D9-A259-430A-B4E0-E5E6E7951E19}"/>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISNA(MATCH(C14,INDIRECT(SUBSTITUTE(C13," ","_")),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Whole Number Input" error="You must enter a whole number greater than zero." promptTitle="Whole Number" prompt="Enter a whole number greater than zero." sqref="C5" xr:uid="{EE5DCAE3-CE15-44F3-A6B1-DD3DABA2B63C}">
+  <autoFilter ref="B3:F14" xr:uid="{D3CF74D9-A259-430A-B4E0-E5E6E7951E19}"/>
+  <dataValidations disablePrompts="1" xWindow="586" yWindow="285" count="15">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a WHOLE number greater than zero." promptTitle="Whole Number" prompt="Enter a whole number greater than zero." sqref="C8" xr:uid="{EE5DCAE3-CE15-44F3-A6B1-DD3DABA2B63C}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whole Number Data Validation" error="You should enter a number greater than zero." promptTitle="Whole number" prompt="Enter a number greater than zero." sqref="C6" xr:uid="{E359CB90-A3B2-49F8-A31A-1F8C7AF7772D}">
+    <dataValidation type="whole" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You did not enter a whole number greater than zero." promptTitle="Whole number" prompt="Enter a whole number greater than zero." sqref="C10" xr:uid="{4C30F500-7C48-43BD-8108-EE87703D32E0}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whole Number Data Validation" error="Your input was not a whole number greater than zero." promptTitle="Whole number" prompt="Enter a whole number greater than zero." sqref="C7" xr:uid="{4C30F500-7C48-43BD-8108-EE87703D32E0}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input." error="You must choose a month from the list. Inputs are case-sensitive." promptTitle="Accounting Period" prompt="Choose a month from the list." sqref="C12" xr:uid="{90C4D1DC-5E69-4D3B-9EEE-01E72BA62B46}">
+      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a number greater than or equal to zero." promptTitle="Quantity" prompt="Enter a number greater than or equal to 0." sqref="C28 C7 C11 C16 C26 C22 C24 C19" xr:uid="{5C8396A8-8AA1-4D14-9AA7-6BC0320B1765}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Decimal Input" error="You must enter a number greater than zero." promptTitle="Decimal" prompt="Enter a number greater than zero." sqref="C9" xr:uid="{77C5841E-F1AE-42F2-89ED-AA367BC90E73}">
-      <formula1>0</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Response" error="You must enter your name in last name, first name order." promptTitle="Last Name, First Name" prompt="Enter your name in Last Name, First Name order." sqref="C27" xr:uid="{AB42D518-0019-D34D-92F3-270EE9315433}">
+      <formula1>FIND(",",C27)</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid List Input" error="You must choose a month from the list. Inputs are case-sensitive." promptTitle="List" prompt="Choose a month from the list." sqref="C10" xr:uid="{90C4D1DC-5E69-4D3B-9EEE-01E72BA62B46}">
-      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C33" xr:uid="{7E56BE88-9BD2-CA46-9818-F792C7953544}">
+      <formula1>COUNTIF($C$29:$C$33,C29)=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Dependent List Input" error="You must make a choice from the list." promptTitle="Dependent List (1 of 2)" prompt="Should this employee be promoted?" sqref="C13" xr:uid="{13FDD285-7E2D-4825-8AB3-E2805AB755C0}">
-      <formula1>$N$1:$O$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must make a choice from the list." promptTitle="Dependent List (2 of 2)" prompt="Make a choice from the list." sqref="C14" xr:uid="{7E7B8CCF-10A9-45A2-8125-F2CECF47794F}">
-      <formula1>INDIRECT(SUBSTITUTE($C$13," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a number greater than or equal to zero." promptTitle="Quantity" prompt="Enter a number greater than or equal to 0." sqref="C4" xr:uid="{5C8396A8-8AA1-4D14-9AA7-6BC0320B1765}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a number greater than zero." promptTitle="Quantity" prompt="Enter a number greater than or equal to 0." sqref="D4" xr:uid="{BB48EED1-D36D-4544-9097-03B783209F77}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid List Input" error="You must choose a color from the list. Inputs are case-sensitive." promptTitle="List based on a Table" prompt="Choose a color from the list. Any additional colors that you add to the list in column J will appear on this list." sqref="C12" xr:uid="{2CDEC4AB-D569-4CC5-BE92-AAA4588C6B90}">
-      <formula1>$J$2:$J$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must choose a color from the list. Inputs are case-sensitive." promptTitle="Colors" prompt="Choose a color from the list." sqref="C11" xr:uid="{A82D2999-BF2C-4AC7-AE29-93D9802A1B90}">
-      <formula1>$H$2:$H$6</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Response" error="You must enter your name in last name, first name order." promptTitle="Last Name, First Name" prompt="Enter your name in Last Name, First Name order." sqref="C18" xr:uid="{AB42D518-0019-D34D-92F3-270EE9315433}">
-      <formula1>FIND(",",C18)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C23 C19" xr:uid="{7E56BE88-9BD2-CA46-9818-F792C7953544}">
-      <formula1>COUNTIF($C$19:$C$23,C19)=1</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must e_x000a_nter a date greater than or equal to the first day of the following month." promptTitle="Date" prompt="Enter a date greater than or equal to the first day of the following month." sqref="C15" xr:uid="{6DC40600-60F7-402C-8FBC-BCFF5273C304}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must e_x000a_nter a date greater than or equal to the first day of the following month." promptTitle="Date" prompt="Enter a date greater than or equal to the first day of the following month." sqref="C21" xr:uid="{6DC40600-60F7-402C-8FBC-BCFF5273C304}">
       <formula1>EOMONTH(TODAY(),0)</formula1>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." promptTitle="Time" prompt="Enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." sqref="C16" xr:uid="{F753B7AA-FBCF-4F3D-BF36-0FFEFC29BBCA}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." promptTitle="Time" prompt="Enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." sqref="C23" xr:uid="{F753B7AA-FBCF-4F3D-BF36-0FFEFC29BBCA}">
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You can only enter up to 10 characters in this cell." promptTitle="Text Length" prompt="Enter up to 10 characters in this cell." sqref="C17" xr:uid="{726CE03A-87D2-40BF-B07D-93D2C1019236}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You can only enter up to 10 characters in this cell." promptTitle="Text Length" prompt="Enter up to 10 characters in this cell." sqref="C25" xr:uid="{726CE03A-87D2-40BF-B07D-93D2C1019236}">
       <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{99B11122-1146-4FF3-B7FC-F77C9FAA2D24}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a number greater than zero." promptTitle="Numeric Value" prompt="Enter a number greater than zero." sqref="C6" xr:uid="{4FEBFC96-7BDB-4535-ABC4-67247A9C2BFD}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You should enter a WHOLE number greater than zero." promptTitle="Whole number" prompt="Enter a whole number greater than zero." sqref="C9" xr:uid="{FECA88A0-7968-49C7-9F4E-22DE49F416BD}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must choose a color from the list. Inputs are case-sensitive." promptTitle="Colors" prompt="Choose a color from the list." sqref="C14" xr:uid="{A82D2999-BF2C-4AC7-AE29-93D9802A1B90}">
+      <formula1>$H$2:$H$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid List Input" error="You must choose a color from the list. Inputs are case-sensitive." promptTitle="List based on a Table" prompt="Choose a color from the list. Any additional colors that you add to the list in column J will appear on this list." sqref="C15" xr:uid="{DCFE74E1-71E1-43D5-BA82-8C5D0CD01ED3}">
+      <formula1>_xlfn.ANCHORARRAY($N$2)</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a date between 1/1/2024 and 12/31/2024." promptTitle="Date" prompt="Enter a date between 1/1/2024 and 12/31/2024." sqref="C20" xr:uid="{87DCC24F-BBCD-44C8-BD12-725C0EBA8322}">
+      <formula1>45292</formula1>
+      <formula2>45657</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,671 +2670,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFB38A-D645-4D23-B7F8-A3DE721267D5}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(B3)</f>
-        <v>January</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FC039A-E6D8-4C15-8715-B557CB453C91}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="str">
-        <f>SUBSTITUTE(B3," ","_")</f>
-        <v>Recommended_for_promotion</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BAB20B-E347-450A-9278-4EFAD0ED2068}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:D6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="31">
-        <f ca="1">TODAY()</f>
-        <v>44689</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="32">
-        <f ca="1">NOW()</f>
-        <v>44689.702847800923</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="2:4" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:D6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15ED3E-A364-401B-B306-46EF4706894B}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:D9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="40">
-        <v>45627</v>
-      </c>
-      <c r="D4" s="41">
-        <f>EOMONTH(C4,0)</f>
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="40">
-        <v>45627</v>
-      </c>
-      <c r="D5" s="41">
-        <f>EOMONTH(C5,-1)</f>
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="40">
-        <v>45627</v>
-      </c>
-      <c r="D6" s="41">
-        <f>EOMONTH(C6,1)</f>
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41">
-        <f ca="1">EOMONTH(TODAY(),0)</f>
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="2:4" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47FBBB-0858-40DE-A645-45F2DFB473DB}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:D6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="8">
-        <f>FIND(",",B3)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f>FIND(",",B4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="2:4" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:D6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFDDDC2-065A-1C4E-A157-8154E938FFED}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="8">
-        <f>COUNTIF(B$3:B$11,D3)</f>
-        <v>3</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" ref="E4:E7" si="0">COUNTIF(B$3:B$11,D4)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:I13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2DE5B6-446D-D44C-BD79-319369752E93}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:E9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="54">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="str" cm="1">
-        <f t="array" ref="C4">INDEX($E$4:$E$7,B4)</f>
-        <v>Summer</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="54">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="e" cm="1">
-        <f t="array" ref="C5">INDEX($E$4:$E$7,B5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B1FEA0-BB0B-D745-A5D4-E6C4B89CCCD4}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3226,7 +2692,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3241,319 +2707,224 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
+      <c r="B3" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="F3" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="J3" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>136</v>
+      <c r="B4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="64">
-        <v>0</v>
-      </c>
-      <c r="L5" s="75" t="str">
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="53" t="str">
         <f>INDEX(F5:F16,K5)</f>
         <v>January</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="64">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9"/>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="64" t="b">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
       </c>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="F8" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="9"/>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="64">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
       </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="H10" t="s">
+        <v>112</v>
+      </c>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="76"/>
+      <c r="D21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3639,4 +3010,800 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E4DABE-10A3-4447-8BFE-E690ACA90F21}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="41">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="D4" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must choose a day of the week from the list (entries are case sensitive)." promptTitle="Day of the week" prompt="Choose a day of the week from the list." sqref="A2:A8" xr:uid="{0F55C5E1-052C-4009-9495-AC4AD04FEF9F}">
+      <formula1>"Sunday,Monday,Tuesday,Wednesday,Thursday,Friday,Saturday"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must e_x000a_nter a date greater than or equal to the first day of the following month." promptTitle="Date" prompt="Enter a date greater than or equal to the first day of the following month." sqref="E2" xr:uid="{F6550A81-6C96-4E97-9CE6-B97889230056}">
+      <formula1>EOMONTH(TODAY(),0)</formula1>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You must enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." promptTitle="Time" prompt="Enter a time between 8:00 AM and 5:00 PM. Be sure to include PM for any times after 11:59 AM." sqref="E3" xr:uid="{62648ECF-E80E-489E-B8AB-A6FC6656BB74}">
+      <formula1>0.333333333333333</formula1>
+      <formula2>0.708333333333333</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Whole Number Input" error="You must enter a whole number greater than zero." promptTitle="Whole Number" prompt="Enter a whole number greater than zero." sqref="E4" xr:uid="{06E2186B-54BC-4143-8E2E-15E6FAFD9021}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DFB38A-D645-4D23-B7F8-A3DE721267D5}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="8" t="str" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(B3)</f>
+        <v>July</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FC039A-E6D8-4C15-8715-B557CB453C91}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="8" t="str">
+        <f>SUBSTITUTE(B4," ","_")</f>
+        <v>Recommended_for_promotion</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="83"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BAB20B-E347-450A-9278-4EFAD0ED2068}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B1:D7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="65"/>
+      <c r="C4" s="26">
+        <f ca="1">TODAY()</f>
+        <v>44761</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="65"/>
+      <c r="C5" s="27">
+        <f ca="1">NOW()</f>
+        <v>44761.968156712966</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB15ED3E-A364-401B-B306-46EF4706894B}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="35">
+        <v>45627</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="36">
+        <f>EOMONTH(C4,0)</f>
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="35">
+        <v>45627</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="36">
+        <f>EOMONTH(C5,-1)</f>
+        <v>45626</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="35">
+        <v>45627</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="36">
+        <f>EOMONTH(C6,1)</f>
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="36">
+        <f ca="1">EOMONTH(TODAY(),0)</f>
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47FBBB-0858-40DE-A645-45F2DFB473DB}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="8">
+        <f>FIND(",",B4)</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="8" t="e">
+        <f>FIND(",",B5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="83"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFDDDC2-065A-1C4E-A157-8154E938FFED}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8">
+        <f>COUNTIF($B$3:$B$11,D3)</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E7" si="0">COUNTIF($B$3:$B$11,D4)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2DE5B6-446D-D44C-BD79-319369752E93}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="87">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="str" cm="1">
+        <f t="array" ref="C4">INDEX($E$4:$E$7,B4)</f>
+        <v>Summer</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="87">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8" t="e" cm="1">
+        <f t="array" ref="C5">INDEX($E$4:$E$7,B5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="37"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>